--- a/selected_particles/8_particle_selection.xlsx
+++ b/selected_particles/8_particle_selection.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="8_particle_selection" sheetId="1" r:id="rId3"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'8_particle_selection'!$A$1:$H$53</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>frame</t>
   </si>
@@ -26,6 +28,9 @@
   </si>
   <si>
     <t>size</t>
+  </si>
+  <si>
+    <t>actual_size</t>
   </si>
   <si>
     <t>video</t>
@@ -89,12 +94,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.43"/>
-    <col customWidth="1" min="2" max="2" width="11.29"/>
-    <col customWidth="1" min="3" max="3" width="2.29"/>
-    <col customWidth="1" min="4" max="4" width="1.86"/>
-    <col customWidth="1" min="5" max="5" width="12.57"/>
-    <col customWidth="1" min="6" max="6" width="8.57"/>
+    <col customWidth="1" min="1" max="1" width="5.86"/>
+    <col customWidth="1" min="2" max="2" width="7.14"/>
+    <col customWidth="1" min="3" max="5" width="12.0"/>
+    <col customWidth="1" min="6" max="6" width="10.43"/>
+    <col customWidth="1" min="7" max="7" width="5.57"/>
+    <col customWidth="1" min="8" max="8" width="6.57"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -119,6 +124,9 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
@@ -137,9 +145,12 @@
         <v>13.4978363616846</v>
       </c>
       <c r="F2" s="1">
-        <v>8.0</v>
+        <v>13.5</v>
       </c>
       <c r="G2" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H2" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -160,13 +171,16 @@
         <v>12.9908721506282</v>
       </c>
       <c r="F3" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8.0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4" hidden="1">
       <c r="A4" s="1">
         <v>0.0</v>
       </c>
@@ -182,14 +196,15 @@
       <c r="E4" s="1">
         <v>16.7946741624812</v>
       </c>
-      <c r="F4" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>8.0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" hidden="1">
       <c r="A5" s="1">
         <v>0.0</v>
       </c>
@@ -205,14 +220,15 @@
       <c r="E5" s="1">
         <v>15.5069059598154</v>
       </c>
-      <c r="F5" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>8.0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" hidden="1">
       <c r="A6" s="1">
         <v>0.0</v>
       </c>
@@ -228,10 +244,11 @@
       <c r="E6" s="1">
         <v>16.1336584310416</v>
       </c>
-      <c r="F6" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -252,13 +269,16 @@
         <v>14.4267430692226</v>
       </c>
       <c r="F7" s="1">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="G7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>8.0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8" hidden="1">
       <c r="A8" s="1">
         <v>0.0</v>
       </c>
@@ -274,14 +294,15 @@
       <c r="E8" s="1">
         <v>16.6463147294356</v>
       </c>
-      <c r="F8" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>8.0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" hidden="1">
       <c r="A9" s="1">
         <v>0.0</v>
       </c>
@@ -297,10 +318,11 @@
       <c r="E9" s="1">
         <v>17.277982906252</v>
       </c>
-      <c r="F9" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -321,13 +343,16 @@
         <v>15.910392828239</v>
       </c>
       <c r="F10" s="1">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>8.0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11" hidden="1">
       <c r="A11" s="1">
         <v>0.0</v>
       </c>
@@ -343,14 +368,15 @@
       <c r="E11" s="1">
         <v>17.6894085511941</v>
       </c>
-      <c r="F11" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8.0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="12" hidden="1">
       <c r="A12" s="1">
         <v>0.0</v>
       </c>
@@ -366,14 +392,15 @@
       <c r="E12" s="1">
         <v>16.2183216804476</v>
       </c>
-      <c r="F12" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8.0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" hidden="1">
       <c r="A13" s="1">
         <v>0.0</v>
       </c>
@@ -389,10 +416,11 @@
       <c r="E13" s="1">
         <v>19.2805476565687</v>
       </c>
-      <c r="F13" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -413,13 +441,16 @@
         <v>15.2704448586319</v>
       </c>
       <c r="F14" s="1">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="G14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8.0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15" hidden="1">
       <c r="A15" s="1">
         <v>0.0</v>
       </c>
@@ -435,14 +466,15 @@
       <c r="E15" s="1">
         <v>20.3967869624225</v>
       </c>
-      <c r="F15" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8.0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" hidden="1">
       <c r="A16" s="1">
         <v>0.0</v>
       </c>
@@ -458,14 +490,15 @@
       <c r="E16" s="1">
         <v>15.11401877656</v>
       </c>
-      <c r="F16" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>8.0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" hidden="1">
       <c r="A17" s="1">
         <v>0.0</v>
       </c>
@@ -481,14 +514,15 @@
       <c r="E17" s="1">
         <v>19.077667086414</v>
       </c>
-      <c r="F17" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>8.0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" hidden="1">
       <c r="A18" s="1">
         <v>0.0</v>
       </c>
@@ -504,10 +538,11 @@
       <c r="E18" s="1">
         <v>14.8289438148595</v>
       </c>
-      <c r="F18" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -528,13 +563,16 @@
         <v>14.0698242976605</v>
       </c>
       <c r="F19" s="1">
-        <v>8.0</v>
+        <v>13.5</v>
       </c>
       <c r="G19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>8.0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20" hidden="1">
       <c r="A20" s="1">
         <v>0.0</v>
       </c>
@@ -550,10 +588,11 @@
       <c r="E20" s="1">
         <v>19.9143540427487</v>
       </c>
-      <c r="F20" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -574,9 +613,12 @@
         <v>14.4986917861143</v>
       </c>
       <c r="F21" s="1">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="G21" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H21" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -597,13 +639,16 @@
         <v>20.6672528486685</v>
       </c>
       <c r="F22" s="1">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="G22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>8.0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23" hidden="1">
       <c r="A23" s="1">
         <v>0.0</v>
       </c>
@@ -619,10 +664,11 @@
       <c r="E23" s="1">
         <v>18.806882504442</v>
       </c>
-      <c r="F23" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -643,13 +689,16 @@
         <v>14.2537318145859</v>
       </c>
       <c r="F24" s="1">
-        <v>8.0</v>
+        <v>8.5</v>
       </c>
       <c r="G24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>8.0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25" hidden="1">
       <c r="A25" s="1">
         <v>0.0</v>
       </c>
@@ -665,14 +714,15 @@
       <c r="E25" s="1">
         <v>16.8536438375581</v>
       </c>
-      <c r="F25" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>8.0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" hidden="1">
       <c r="A26" s="1">
         <v>0.0</v>
       </c>
@@ -688,14 +738,15 @@
       <c r="E26" s="1">
         <v>17.483034234953</v>
       </c>
-      <c r="F26" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>8.0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" hidden="1">
       <c r="A27" s="1">
         <v>0.0</v>
       </c>
@@ -711,10 +762,11 @@
       <c r="E27" s="1">
         <v>16.8708548049238</v>
       </c>
-      <c r="F27" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H27" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -735,9 +787,12 @@
         <v>17.9928120218972</v>
       </c>
       <c r="F28" s="1">
-        <v>8.0</v>
+        <v>19.5</v>
       </c>
       <c r="G28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H28" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -758,13 +813,16 @@
         <v>14.6807759239287</v>
       </c>
       <c r="F29" s="1">
-        <v>8.0</v>
+        <v>9.5</v>
       </c>
       <c r="G29" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>8.0</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30" hidden="1">
       <c r="A30" s="1">
         <v>0.0</v>
       </c>
@@ -780,14 +838,15 @@
       <c r="E30" s="1">
         <v>18.9254906689476</v>
       </c>
-      <c r="F30" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>8.0</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" hidden="1">
       <c r="A31" s="1">
         <v>0.0</v>
       </c>
@@ -803,14 +862,15 @@
       <c r="E31" s="1">
         <v>15.4352844548408</v>
       </c>
-      <c r="F31" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>8.0</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" hidden="1">
       <c r="A32" s="1">
         <v>0.0</v>
       </c>
@@ -826,14 +886,15 @@
       <c r="E32" s="1">
         <v>19.6504688258164</v>
       </c>
-      <c r="F32" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>8.0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" hidden="1">
       <c r="A33" s="1">
         <v>0.0</v>
       </c>
@@ -849,10 +910,11 @@
       <c r="E33" s="1">
         <v>15.0418670671148</v>
       </c>
-      <c r="F33" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H33" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -873,9 +935,12 @@
         <v>15.7744045703389</v>
       </c>
       <c r="F34" s="1">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="G34" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H34" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -896,9 +961,12 @@
         <v>14.7948276494433</v>
       </c>
       <c r="F35" s="1">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="G35" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H35" s="1">
         <v>1.0</v>
       </c>
     </row>
@@ -919,13 +987,16 @@
         <v>14.6280453667273</v>
       </c>
       <c r="F36" s="1">
-        <v>8.0</v>
+        <v>8.5</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>8.0</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37" hidden="1">
       <c r="A37" s="1">
         <v>0.0</v>
       </c>
@@ -941,10 +1012,11 @@
       <c r="E37" s="1">
         <v>16.6246035452145</v>
       </c>
-      <c r="F37" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H37" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -964,11 +1036,12 @@
       <c r="E38" s="1">
         <v>17.9164487917348</v>
       </c>
-      <c r="F38" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1">
-        <v>1.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -988,13 +1061,16 @@
         <v>18.6922269373565</v>
       </c>
       <c r="F39" s="1">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="G39" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>8.0</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40" hidden="1">
       <c r="A40" s="1">
         <v>0.0</v>
       </c>
@@ -1010,14 +1086,15 @@
       <c r="E40" s="1">
         <v>17.688729422271</v>
       </c>
-      <c r="F40" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>8.0</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" hidden="1">
       <c r="A41" s="1">
         <v>0.0</v>
       </c>
@@ -1033,14 +1110,15 @@
       <c r="E41" s="1">
         <v>17.5617770288978</v>
       </c>
-      <c r="F41" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>8.0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" hidden="1">
       <c r="A42" s="1">
         <v>0.0</v>
       </c>
@@ -1056,14 +1134,15 @@
       <c r="E42" s="1">
         <v>19.9687523794105</v>
       </c>
-      <c r="F42" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>8.0</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" hidden="1">
       <c r="A43" s="1">
         <v>0.0</v>
       </c>
@@ -1079,14 +1158,15 @@
       <c r="E43" s="1">
         <v>17.9265598556438</v>
       </c>
-      <c r="F43" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>8.0</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" hidden="1">
       <c r="A44" s="1">
         <v>0.0</v>
       </c>
@@ -1102,14 +1182,15 @@
       <c r="E44" s="1">
         <v>22.2592330823115</v>
       </c>
-      <c r="F44" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>8.0</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" hidden="1">
       <c r="A45" s="1">
         <v>0.0</v>
       </c>
@@ -1125,14 +1206,15 @@
       <c r="E45" s="1">
         <v>16.6348112635734</v>
       </c>
-      <c r="F45" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>8.0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" hidden="1">
       <c r="A46" s="1">
         <v>0.0</v>
       </c>
@@ -1148,10 +1230,11 @@
       <c r="E46" s="1">
         <v>20.0201070171909</v>
       </c>
-      <c r="F46" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H46" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1172,13 +1255,16 @@
         <v>17.2381141998779</v>
       </c>
       <c r="F47" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G47" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>8.0</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48" hidden="1">
       <c r="A48" s="1">
         <v>0.0</v>
       </c>
@@ -1194,10 +1280,11 @@
       <c r="E48" s="1">
         <v>15.2005503921372</v>
       </c>
-      <c r="F48" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H48" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1218,13 +1305,16 @@
         <v>14.8216635015753</v>
       </c>
       <c r="F49" s="1">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="G49" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>8.0</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50" hidden="1">
       <c r="A50" s="1">
         <v>0.0</v>
       </c>
@@ -1240,10 +1330,11 @@
       <c r="E50" s="1">
         <v>15.0730551319141</v>
       </c>
-      <c r="F50" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H50" s="1">
         <v>0.0</v>
       </c>
     </row>
@@ -1263,14 +1354,15 @@
       <c r="E51" s="1">
         <v>14.4361136985643</v>
       </c>
-      <c r="F51" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>8.0</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" hidden="1">
       <c r="A52" s="1">
         <v>0.0</v>
       </c>
@@ -1286,14 +1378,15 @@
       <c r="E52" s="1">
         <v>19.1802669285135</v>
       </c>
-      <c r="F52" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>8.0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="53" hidden="1">
       <c r="A53" s="1">
         <v>0.0</v>
       </c>
@@ -1309,14 +1402,22 @@
       <c r="E53" s="1">
         <v>20.3384657620026</v>
       </c>
-      <c r="F53" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="H53" s="1">
         <v>0.0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$H$53">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>